--- a/notebooks/output/management.xlsx
+++ b/notebooks/output/management.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="95">
   <si>
     <t>Storage</t>
   </si>
@@ -83,15 +83,15 @@
     <t>SisGExp</t>
   </si>
   <si>
+    <t>SPADE</t>
+  </si>
+  <si>
     <t>StarFlow</t>
   </si>
   <si>
     <t>Sumatra</t>
   </si>
   <si>
-    <t>Tariq, Ali, and Gehani</t>
-  </si>
-  <si>
     <t>Variolite</t>
   </si>
   <si>
@@ -122,9 +122,6 @@
     <t xml:space="preserve"> \citet{michaelides2016a}</t>
   </si>
   <si>
-    <t xml:space="preserve"> \citet{tariq2012a}</t>
-  </si>
-  <si>
     <t>Artifacts</t>
   </si>
   <si>
@@ -134,7 +131,7 @@
     <t>Proprietary, Source</t>
   </si>
   <si>
-    <t>XML Server</t>
+    <t>PReServ</t>
   </si>
   <si>
     <t>MySQL, PostgreSQL, 4store</t>
@@ -173,24 +170,24 @@
     <t>Proprietary (HDF5)</t>
   </si>
   <si>
-    <t>Proprietary (DDG)</t>
-  </si>
-  <si>
-    <t>MongoDB</t>
+    <t>Interoperable (PROV)</t>
+  </si>
+  <si>
+    <t>MongoDB, Relational, JSON</t>
   </si>
   <si>
     <t>PostgreSQL, Repository</t>
   </si>
   <si>
+    <t>DB, PROV</t>
+  </si>
+  <si>
     <t>OPM, Proprietary (CSV)</t>
   </si>
   <si>
     <t>SQLite, VCS</t>
   </si>
   <si>
-    <t>Proprietary (SPADE), OPM</t>
-  </si>
-  <si>
     <t>Proprietary (JSON)</t>
   </si>
   <si>
@@ -221,7 +218,7 @@
     <t>File</t>
   </si>
   <si>
-    <t>Repository</t>
+    <t>Remote</t>
   </si>
   <si>
     <t>Sequence</t>
@@ -696,22 +693,22 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
         <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -722,25 +719,25 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -751,25 +748,25 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -780,25 +777,25 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -809,25 +806,25 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -838,25 +835,25 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -867,25 +864,25 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -896,25 +893,25 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -925,25 +922,25 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -954,25 +951,25 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -983,25 +980,25 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1012,25 +1009,25 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1041,25 +1038,25 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1070,25 +1067,25 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1099,25 +1096,25 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1128,25 +1125,25 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1157,25 +1154,25 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1186,25 +1183,25 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1215,25 +1212,25 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1244,25 +1241,25 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1273,25 +1270,25 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
         <v>65</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1299,28 +1296,28 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
         <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1331,25 +1328,25 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1360,25 +1357,25 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1389,25 +1386,25 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1418,25 +1415,25 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1447,25 +1444,25 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1476,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1540,399 +1537,399 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
         <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1943,25 +1940,25 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/output/management.xlsx
+++ b/notebooks/output/management.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="96">
   <si>
     <t>Storage</t>
   </si>
@@ -170,7 +170,7 @@
     <t>Proprietary (HDF5)</t>
   </si>
   <si>
-    <t>Interoperable (PROV)</t>
+    <t>PROV-JSON</t>
   </si>
   <si>
     <t>MongoDB, Relational, JSON</t>
@@ -179,7 +179,7 @@
     <t>PostgreSQL, Repository</t>
   </si>
   <si>
-    <t>DB, PROV</t>
+    <t>PostgreSQL, MySQL, H2, Neo4j, Datalog, GraphViz, PROV</t>
   </si>
   <si>
     <t>OPM, Proprietary (CSV)</t>
@@ -194,7 +194,7 @@
     <t>Log, Repository</t>
   </si>
   <si>
-    <t>Content DB, Proprietary (Dict)</t>
+    <t>Content DB, SQLite, Proprietary (Dict)</t>
   </si>
   <si>
     <t>Graphviz, GraphML</t>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>File</t>
+  </si>
+  <si>
+    <t>Local</t>
   </si>
   <si>
     <t>Remote</t>
@@ -705,10 +708,10 @@
         <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -737,7 +740,7 @@
         <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -824,7 +827,7 @@
         <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -882,7 +885,7 @@
         <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -940,7 +943,7 @@
         <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -998,7 +1001,7 @@
         <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1027,7 +1030,7 @@
         <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1085,7 +1088,7 @@
         <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1143,7 +1146,7 @@
         <v>65</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1172,7 +1175,7 @@
         <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1201,7 +1204,7 @@
         <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1317,7 +1320,7 @@
         <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1346,7 +1349,7 @@
         <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1404,7 +1407,7 @@
         <v>65</v>
       </c>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1549,18 +1552,18 @@
         <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -1586,13 +1589,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
@@ -1610,18 +1613,18 @@
         <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
@@ -1644,13 +1647,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
@@ -1673,10 +1676,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -1702,13 +1705,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
@@ -1726,15 +1729,15 @@
         <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -1760,13 +1763,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -1784,18 +1787,18 @@
         <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
@@ -1818,13 +1821,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
@@ -1847,13 +1850,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
@@ -1876,10 +1879,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -1905,13 +1908,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
